--- a/ostatní/Účty.xlsx
+++ b/ostatní/Účty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Desktop\Unicorn_Projekt_Semestr_3\ostatní\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2953544-F0A0-4C52-8D4B-0807FD82CCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA339C-6CAE-46EB-9D08-6EEA4C3187F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Email</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>kdovikdo@seznam.cz</t>
+  </si>
+  <si>
+    <t>ned.stark@seznam.cz</t>
+  </si>
+  <si>
+    <t>rob.baratheonk@seznam.cz</t>
+  </si>
+  <si>
+    <t>iKnowNothing@seznam.cz</t>
+  </si>
+  <si>
+    <t>gilly@seznam.cz</t>
+  </si>
+  <si>
+    <t>varys@seznam.cz</t>
   </si>
 </sst>
 </file>
@@ -383,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,6 +461,61 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
